--- a/application/controllers/file/laporan_evaluasi_proses_induk.xlsx
+++ b/application/controllers/file/laporan_evaluasi_proses_induk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\argopuro\application\controllers\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0A5AC9-C90B-43A6-AF54-C22ECDAA39AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2210561D-6264-4975-B8B3-4635F433C3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -151,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -596,23 +597,23 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0"/>
   </cellStyleXfs>
@@ -624,11 +625,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -653,76 +654,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -740,73 +741,73 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -831,7 +832,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -840,59 +892,9 @@
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="20">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Comma [0] 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Comma [0] 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Comma [0] 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -905,7 +907,6 @@
     <cellStyle name="Comma 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Comma 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Comma 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Koma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
@@ -934,7 +935,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1260,8 +1261,8 @@
   </sheetPr>
   <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1354,11 +1355,11 @@
     </row>
     <row r="4" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1441,46 +1442,46 @@
     </row>
     <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="91" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="85" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="86"/>
-      <c r="M7" s="85" t="s">
+      <c r="L7" s="77"/>
+      <c r="M7" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="85" t="s">
+      <c r="N7" s="77"/>
+      <c r="O7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="85" t="s">
+      <c r="P7" s="76"/>
+      <c r="Q7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="88" t="s">
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="90" t="s">
+      <c r="U7" s="80" t="s">
         <v>2</v>
       </c>
       <c r="V7" s="4"/>
@@ -1490,9 +1491,9 @@
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="78"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="50" t="s">
         <v>3</v>
       </c>
@@ -1538,8 +1539,8 @@
       <c r="S8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="89"/>
-      <c r="U8" s="90"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -1871,46 +1872,46 @@
     </row>
     <row r="19" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="91" t="s">
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="85" t="s">
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="86"/>
-      <c r="M19" s="85" t="s">
+      <c r="L19" s="77"/>
+      <c r="M19" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="86"/>
-      <c r="O19" s="85" t="s">
+      <c r="N19" s="77"/>
+      <c r="O19" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="85" t="s">
+      <c r="P19" s="76"/>
+      <c r="Q19" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="88" t="s">
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="U19" s="90" t="s">
+      <c r="U19" s="80" t="s">
         <v>2</v>
       </c>
       <c r="V19" s="4"/>
@@ -1920,9 +1921,9 @@
     </row>
     <row r="20" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="78"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="50" t="s">
         <v>3</v>
       </c>
@@ -1968,8 +1969,8 @@
       <c r="S20" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="89"/>
-      <c r="U20" s="90"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="80"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -4810,6 +4811,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="T19:T20"/>
@@ -4823,16 +4834,6 @@
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
